--- a/data/trans_bre/P57_AC_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Provincia-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeCdic</t>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P57_AC_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P57_AC_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>11,95%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,5%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>4,03; 15,59</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; 8,51</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 14,02</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 20,3</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,71; 10,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,79; 30,05</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,83%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,43; 13,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,51; 8,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,58; 5,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,62; 0,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,24; 25,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,68; 16,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,52; 7,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,85; 1,37</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,66%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,94; 3,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,33; 15,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,97; 16,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 12,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,62; 6,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,8; 25,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,04; 24,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 30,07</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,84%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,08; 5,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,67; 13,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 16,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,87; 9,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,09; 7,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,21; 23,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,78; 39,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,04; 34,41</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,48%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,21%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 14,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,21; 27,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,57; 7,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,12; 5,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 20,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,69; 58,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,24; 8,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,34; 5,82</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,8</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,5%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 11,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,58; 22,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,38; 6,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,38; 7,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 18,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,73; 38,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,3; 8,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,96; 22,18</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,19%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,35; 1,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,53; 14,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 7,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,2; 7,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,94; 3,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,61; 24,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 9,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,45; 12,32</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,81%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 9,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,96; 2,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 3,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,65; 26,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,43; 12,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,37; 2,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 4,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,93; 41,42</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,84%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 5,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,74; 9,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 4,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 5,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 7,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,96; 13,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 6,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 8,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_AC_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>12,36%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 15,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 14,02</t>
+          <t>-2,0; 15,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,24; 22,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 30,05</t>
+          <t>-3,06; 33,83</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,25</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-9,83%</t>
+          <t>-9,52%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 0,91</t>
+          <t>-12,57; 1,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 1,37</t>
+          <t>-18,84; 1,87</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>12,64%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 12,78</t>
+          <t>-2,08; 13,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 30,07</t>
+          <t>-4,31; 31,33</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,77</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>-11,17%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 13,6</t>
+          <t>1,21; 16,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 9,77</t>
+          <t>-17,85; 5,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 23,27</t>
+          <t>1,87; 33,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 34,41</t>
+          <t>-48,39; 19,83</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,21%</t>
+          <t>-0,08%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 5,22</t>
+          <t>-4,75; 5,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 5,82</t>
+          <t>-5,07; 5,73</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 7,87</t>
+          <t>-6,25; 8,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 22,18</t>
+          <t>-14,32; 23,13</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 7,16</t>
+          <t>-3,89; 7,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 12,32</t>
+          <t>-6,07; 13,4</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>25,06</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>40,24%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,65; 26,23</t>
+          <t>1,86; 60,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,93; 41,42</t>
+          <t>2,1; 224,27</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>7,45%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 5,07</t>
+          <t>-1,56; 17,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 8,69</t>
+          <t>-2,6; 39,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_AC_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 15,59</t>
+          <t>3,13; 14,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 15,52</t>
+          <t>1,55; 16,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 8,51</t>
+          <t>-5,02; 7,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 15,27</t>
+          <t>-1,33; 15,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,79; 20,3</t>
+          <t>3,76; 19,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 22,93</t>
+          <t>2,06; 24,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 10,79</t>
+          <t>-6,11; 9,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 33,83</t>
+          <t>-2,46; 33,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 13,88</t>
+          <t>1,81; 14,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 8,66</t>
+          <t>-4,71; 8,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 5,56</t>
+          <t>-4,2; 5,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 1,18</t>
+          <t>-13,02; 1,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 25,15</t>
+          <t>2,97; 25,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 16,85</t>
+          <t>-7,95; 16,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 7,19</t>
+          <t>-5,11; 7,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 1,87</t>
+          <t>-19,17; 3,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 3,88</t>
+          <t>-12,59; 2,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 15,48</t>
+          <t>1,91; 16,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 16,16</t>
+          <t>3,24; 16,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 13,02</t>
+          <t>-1,33; 12,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 6,82</t>
+          <t>-18,61; 5,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 25,4</t>
+          <t>2,79; 27,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 24,01</t>
+          <t>4,41; 24,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 31,33</t>
+          <t>-2,8; 30,35</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 5,05</t>
+          <t>-7,7; 5,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 16,36</t>
+          <t>1,87; 16,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 16,31</t>
+          <t>0,85; 15,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 5,83</t>
+          <t>-17,79; 6,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 7,61</t>
+          <t>-10,41; 8,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 33,83</t>
+          <t>3,47; 34,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 39,31</t>
+          <t>1,06; 36,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 19,83</t>
+          <t>-49,84; 22,09</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 14,77</t>
+          <t>-0,87; 14,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,21; 27,74</t>
+          <t>9,31; 28,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 7,34</t>
+          <t>-4,57; 7,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 5,06</t>
+          <t>-4,57; 5,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 20,24</t>
+          <t>-1,02; 18,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,69; 58,02</t>
+          <t>15,76; 60,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 8,95</t>
+          <t>-5,2; 8,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 5,73</t>
+          <t>-4,83; 5,63</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 11,82</t>
+          <t>-3,3; 12,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,58; 22,02</t>
+          <t>6,8; 23,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 6,03</t>
+          <t>-7,55; 7,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 8,06</t>
+          <t>-6,03; 8,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 18,37</t>
+          <t>-4,49; 18,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,73; 38,51</t>
+          <t>10,82; 41,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 8,23</t>
+          <t>-9,34; 9,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 23,13</t>
+          <t>-13,98; 24,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 1,99</t>
+          <t>-8,99; 2,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,53; 14,15</t>
+          <t>3,82; 14,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 7,74</t>
+          <t>-0,9; 7,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 7,81</t>
+          <t>-4,43; 8,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 3,68</t>
+          <t>-16,74; 4,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,61; 24,7</t>
+          <t>6,28; 26,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 9,74</t>
+          <t>-1,06; 10,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 13,4</t>
+          <t>-6,71; 14,25</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,01; 9,61</t>
+          <t>2,36; 9,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 2,38</t>
+          <t>-4,31; 2,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,94</t>
+          <t>-1,32; 3,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,86; 60,56</t>
+          <t>1,69; 59,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,43; 12,33</t>
+          <t>2,86; 12,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,75</t>
+          <t>-4,74; 2,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 4,35</t>
+          <t>-1,42; 4,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,1; 224,27</t>
+          <t>2,01; 212,53</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,18</t>
+          <t>0,64; 5,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,0</t>
+          <t>4,53; 8,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,93</t>
+          <t>1,17; 4,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 17,39</t>
+          <t>-1,68; 16,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,74</t>
+          <t>0,92; 7,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,96; 13,68</t>
+          <t>6,72; 13,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,57; 6,35</t>
+          <t>1,49; 6,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 39,49</t>
+          <t>-2,73; 37,78</t>
         </is>
       </c>
     </row>
